--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69F90E4-116F-40AC-A5C0-1438504E0970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3C5C2F-4C4F-4421-8580-A52EB1EE2081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3C5C2F-4C4F-4421-8580-A52EB1EE2081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FDA40C-084F-4145-93DE-24D465E7B89E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
+    <workbookView xWindow="11010" yWindow="780" windowWidth="18090" windowHeight="11385" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
-  <si>
-    <t>Cannot enter graphical mode on VirtualBox + Virtual86</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -70,6 +67,15 @@
   </si>
   <si>
     <t>Validate system call inputs and pointers</t>
+  </si>
+  <si>
+    <t>Stop executing RDMSR with MSR_APICBASE so often</t>
+  </si>
+  <si>
+    <t>APIC bogus vector 0, ignoring… (Bochs)</t>
+  </si>
+  <si>
+    <t>Double fault when entering VM86 in Bochs and VirtualBox</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,16 +460,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -471,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,10 +499,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,10 +510,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -515,10 +521,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -526,10 +532,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -537,10 +543,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,10 +554,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,20 +565,32 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FDA40C-084F-4145-93DE-24D465E7B89E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DAD722-4866-412F-AA1A-E19F44580BCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="780" windowWidth="18090" windowHeight="11385" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>XADD emulation broken</t>
   </si>
   <si>
@@ -76,6 +73,21 @@
   </si>
   <si>
     <t>Double fault when entering VM86 in Bochs and VirtualBox</t>
+  </si>
+  <si>
+    <t>Loading kernel segments (DS, ES, FS, GS) on interrupt resolved issue</t>
+  </si>
+  <si>
+    <t>Bitblit very slow on non-QEMU emulators, especially on window moves, where bitblit ends up calling putpixel</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Add DEL command to command.exe</t>
   </si>
 </sst>
 </file>
@@ -136,13 +148,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E54C1E2-8F12-428A-8BFB-2526B915D120}" name="Table1" displayName="Table1" ref="A1:D1048576" totalsRowShown="0">
-  <autoFilter ref="A1:D1048576" xr:uid="{E91D2CD5-CC2C-49D2-A636-D922EA294CF4}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E54C1E2-8F12-428A-8BFB-2526B915D120}" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0">
+  <autoFilter ref="A1:E1048576" xr:uid="{E91D2CD5-CC2C-49D2-A636-D922EA294CF4}">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9A71D80C-3B8D-4C1A-9EDE-9FEEC457800E}" name="ID" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0F4B1AF0-FCF9-459A-B906-7B0403D4584C}" name="Type"/>
     <tableColumn id="3" xr3:uid="{543C0C10-3D9A-412F-9F51-C0008EE80990}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{05A0CE53-1EF2-475F-B0CF-B7D3D1EB3BBF}" name="Done"/>
+    <tableColumn id="4" xr3:uid="{05A0CE53-1EF2-475F-B0CF-B7D3D1EB3BBF}" name="Solution"/>
+    <tableColumn id="6" xr3:uid="{1EF5A817-2DF9-4AA9-882F-24527B955084}" name="Resolved"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -445,20 +464,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55480A3-2006-4594-98E4-DC14F17CB734}">
-  <dimension ref="A1:D41"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="3" max="3" width="101" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="127.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -469,10 +490,13 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -480,10 +504,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -493,8 +523,11 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -504,8 +537,11 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -515,8 +551,11 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -524,21 +563,27 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -546,43 +591,55 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -590,25 +647,43 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DAD722-4866-412F-AA1A-E19F44580BCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CC81E7-6852-4ACE-A4A9-56757F15F2E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Add DEL command to command.exe</t>
+  </si>
+  <si>
+    <t>Environment variables not working (reading them crashes system)</t>
+  </si>
+  <si>
+    <t>User mode environment variables missing</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,15 +683,36 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CC81E7-6852-4ACE-A4A9-56757F15F2E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1FF23A-F4D9-4762-8587-A6D97249768D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1FF23A-F4D9-4762-8587-A6D97249768D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D8D39-1CC1-460B-A51B-66BFF6D58BC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -94,6 +94,27 @@
   </si>
   <si>
     <t>User mode environment variables missing</t>
+  </si>
+  <si>
+    <t>Fixed by itself</t>
+  </si>
+  <si>
+    <t>Need to load PCI mappings from ACPICA</t>
+  </si>
+  <si>
+    <t>CD-ROM writes work according to te.exe</t>
+  </si>
+  <si>
+    <t>Copying from source on another drive broken in command.exe</t>
+  </si>
+  <si>
+    <t>RTC writing the time</t>
+  </si>
+  <si>
+    <t>command.exe set time / date</t>
+  </si>
+  <si>
+    <t>Add set date / time to init.bat</t>
   </si>
 </sst>
 </file>
@@ -474,7 +495,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,8 +578,11 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -715,82 +739,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D8D39-1CC1-460B-A51B-66BFF6D58BC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AAABA7-A1FA-459F-B85A-2E4BB5860ABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Add set date / time to init.bat</t>
+  </si>
+  <si>
+    <t>Added writing failure message to te.exe, also made ISO9660::open() fail with WriteProtect if the mode != Read</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -753,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -763,8 +766,11 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AAABA7-A1FA-459F-B85A-2E4BB5860ABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7302E5-FA6C-426F-A058-3DE70B68D60B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Added writing failure message to te.exe, also made ISO9660::open() fail with WriteProtect if the mode != Read</t>
+  </si>
+  <si>
+    <t>Opening files on CD crashes with page fault (memcpy/strcpy)</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,6 +836,15 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7302E5-FA6C-426F-A058-3DE70B68D60B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0DF2DC-89B9-4EF8-8FE4-CEF0514CC380}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -829,7 +829,7 @@
         <v>29</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0DF2DC-89B9-4EF8-8FE4-CEF0514CC380}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED31548-5CE5-4F9B-980C-8E007D74CBAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>Added writing failure message to te.exe, also made ISO9660::open() fail with WriteProtect if the mode != Read</t>
   </si>
   <si>
-    <t>Opening files on CD crashes with page fault (memcpy/strcpy)</t>
+    <t>Doing some things with CD files crashes (e.g. type D:/TRANS.TBL)</t>
   </si>
 </sst>
 </file>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED31548-5CE5-4F9B-980C-8E007D74CBAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ED637A-B04C-4676-9918-40FE9F35DB19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Doing some things with CD files crashes (e.g. type D:/TRANS.TBL)</t>
+  </si>
+  <si>
+    <t>Reading non-existant CD-ROM files goes on forever</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,6 +853,15 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ED637A-B04C-4676-9918-40FE9F35DB19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F781BC2C-D7D1-4893-A080-B3F9ECCBBDD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Reading non-existant CD-ROM files goes on forever</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Check if memcpy does some weird things… (ISO9660 read requires a custom memcpy)</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +852,7 @@
         <v>31</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -866,6 +872,15 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F781BC2C-D7D1-4893-A080-B3F9ECCBBDD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEF142C-81CD-4609-8CDC-92662FFD1260}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
+    <workbookView xWindow="9915" yWindow="3105" windowWidth="18090" windowHeight="11385" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Check if memcpy does some weird things… (ISO9660 read requires a custom memcpy)</t>
+  </si>
+  <si>
+    <t>Implement timezone</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +827,7 @@
         <v>28</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -841,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -886,6 +889,12 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEF142C-81CD-4609-8CDC-92662FFD1260}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A06E8A-FDD1-49AF-BD09-666FF36E4ACB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9915" yWindow="3105" windowWidth="18090" windowHeight="11385" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A06E8A-FDD1-49AF-BD09-666FF36E4ACB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB8055-D26B-4838-B6A2-733EFB8E080D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -813,10 +813,10 @@
         <v>27</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB8055-D26B-4838-B6A2-733EFB8E080D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B3C13-00DC-4426-AB93-0F024656B9CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14640" windowHeight="13290" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Implement timezone</t>
+  </si>
+  <si>
+    <t>Bootloader stack put in ROM for some reason</t>
+  </si>
+  <si>
+    <t>Move it around</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,10 +902,22 @@
       <c r="C26" t="s">
         <v>35</v>
       </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B3C13-00DC-4426-AB93-0F024656B9CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C7BD30-66E9-4353-99D7-AA9CB7139B48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="14640" windowHeight="13290" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>Implement timezone</t>
-  </si>
-  <si>
-    <t>Bootloader stack put in ROM for some reason</t>
-  </si>
-  <si>
-    <t>Move it around</t>
   </si>
 </sst>
 </file>
@@ -519,7 +513,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,15 +904,6 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C7BD30-66E9-4353-99D7-AA9CB7139B48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC7E57E-E1D3-4F4F-89C7-EE3593EDA2E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14640" windowHeight="13290" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -132,7 +132,16 @@
     <t>Check if memcpy does some weird things… (ISO9660 read requires a custom memcpy)</t>
   </si>
   <si>
-    <t>Implement timezone</t>
+    <t>Implement timezones</t>
+  </si>
+  <si>
+    <t>PCI assumed to exist</t>
+  </si>
+  <si>
+    <t>Detection code added</t>
+  </si>
+  <si>
+    <t>PCI mechansim #2 always used</t>
   </si>
 </sst>
 </file>
@@ -900,14 +909,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC7E57E-E1D3-4F4F-89C7-EE3593EDA2E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B425EE97-7FA6-4090-B682-52F2463510BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B425EE97-7FA6-4090-B682-52F2463510BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511CCEE6-F842-4284-916C-200F60B44F87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
+    <workbookView xWindow="16290" yWindow="1905" windowWidth="14640" windowHeight="13290" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>Critical</t>
   </si>
   <si>
-    <t>Check if memcpy does some weird things… (ISO9660 read requires a custom memcpy)</t>
-  </si>
-  <si>
     <t>Implement timezones</t>
   </si>
   <si>
@@ -141,17 +138,28 @@
     <t>Detection code added</t>
   </si>
   <si>
-    <t>PCI mechansim #2 always used</t>
+    <t>memcpy is broken</t>
+  </si>
+  <si>
+    <t>PCI mechansim #1 always used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,9 +185,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +531,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,11 +894,11 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>34</v>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -903,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -917,10 +926,10 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
         <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511CCEE6-F842-4284-916C-200F60B44F87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA63B7CE-097E-471C-B747-640E95E19EB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16290" yWindow="1905" windowWidth="14640" windowHeight="13290" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>PCI mechansim #1 always used</t>
+  </si>
+  <si>
+    <t>ACPICA PCI tables crash upon being loaded</t>
+  </si>
+  <si>
+    <t>Replaced with unoptimised version</t>
+  </si>
+  <si>
+    <t>Optimise memcpy (properly though)</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -900,8 +909,11 @@
       <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -953,10 +965,28 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA63B7CE-097E-471C-B747-640E95E19EB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F24972E-BA15-4265-80D1-B7E0BEC07FC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -540,7 +540,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F24972E-BA15-4265-80D1-B7E0BEC07FC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E4A4ED-DD48-4F15-82A6-5A04F4B8E033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Optimise memcpy (properly though)</t>
+  </si>
+  <si>
+    <t>ACPICA.SYS was told its root was 'computer' when it was actually 'computer-&gt;root', causing it to cast a Computer to an ACPI, which obviously fails</t>
   </si>
 </sst>
 </file>
@@ -961,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -971,8 +974,11 @@
       <c r="C29" t="s">
         <v>39</v>
       </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E4A4ED-DD48-4F15-82A6-5A04F4B8E033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C0164F-BFA6-48DC-BD96-B74D9C05D4CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -154,6 +155,9 @@
   </si>
   <si>
     <t>ACPICA.SYS was told its root was 'computer' when it was actually 'computer-&gt;root', causing it to cast a Computer to an ACPI, which obviously fails</t>
+  </si>
+  <si>
+    <t>System-wide crashes when doing anything really (executing 'dir', pressing 'Home')</t>
   </si>
 </sst>
 </file>
@@ -543,7 +547,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,6 +1003,15 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C0164F-BFA6-48DC-BD96-B74D9C05D4CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8D00BD-6CEF-4B15-996F-23F38131B67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -157,7 +156,13 @@
     <t>ACPICA.SYS was told its root was 'computer' when it was actually 'computer-&gt;root', causing it to cast a Computer to an ACPI, which obviously fails</t>
   </si>
   <si>
-    <t>System-wide crashes when doing anything really (executing 'dir', pressing 'Home')</t>
+    <t>Fixed.</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>ACPICA.SYS, VGA.SYS, VESA.SYS crashes</t>
   </si>
 </sst>
 </file>
@@ -547,7 +552,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -616,8 +621,11 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -801,8 +809,11 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1007,7 +1018,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8D00BD-6CEF-4B15-996F-23F38131B67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED738E63-5AEA-4CD4-B4F6-88D149470F13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>ACPICA.SYS, VGA.SYS, VESA.SYS crashes</t>
+  </si>
+  <si>
+    <t>ATA reads with multiple sectors don't work correctly</t>
+  </si>
+  <si>
+    <t>The driver incremented the buffer by 1024, not 512 due to REP INSW being used</t>
+  </si>
+  <si>
+    <t>Read VCACHE</t>
   </si>
 </sst>
 </file>
@@ -552,7 +561,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1024,52 +1033,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED738E63-5AEA-4CD4-B4F6-88D149470F13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F5FA3B-736B-4B8F-A50B-6431D958560E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -561,7 +561,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1015,8 +1015,11 @@
       <c r="C30" t="s">
         <v>41</v>
       </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F5FA3B-736B-4B8F-A50B-6431D958560E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B970D6-A50C-4FCE-A4D9-C0AD41D8756A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
+    <workbookView xWindow="180" yWindow="1260" windowWidth="14640" windowHeight="13290" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -141,9 +141,6 @@
     <t>memcpy is broken</t>
   </si>
   <si>
-    <t>PCI mechansim #1 always used</t>
-  </si>
-  <si>
     <t>ACPICA PCI tables crash upon being loaded</t>
   </si>
   <si>
@@ -172,13 +169,22 @@
   </si>
   <si>
     <t>Read VCACHE</t>
+  </si>
+  <si>
+    <t>Fixed by itself?</t>
+  </si>
+  <si>
+    <t>Fixed problem with SATA writes with counts &gt; 16</t>
+  </si>
+  <si>
+    <t>PCI mechanism #1 always used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +196,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,10 +227,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +574,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +582,7 @@
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="101" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="127.85546875" customWidth="1"/>
+    <col min="4" max="4" width="81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -819,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -912,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -922,8 +935,11 @@
       <c r="C24" t="s">
         <v>32</v>
       </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -937,7 +953,7 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -982,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -996,10 +1012,10 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1013,27 +1029,30 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>45</v>
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1044,10 +1063,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
         <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>47</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -1061,10 +1080,10 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B970D6-A50C-4FCE-A4D9-C0AD41D8756A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5E4017-C272-41B0-A60F-7D5DD167C69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1260" windowWidth="14640" windowHeight="13290" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>PCI mechanism #1 always used</t>
+  </si>
+  <si>
+    <t>SATAPI and ATAPI are very sketchy when the disk is ejected</t>
+  </si>
+  <si>
+    <t>SATAPI can cause boots to hang on real hardware</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Cannot boot / install on very low memory systems even with swapfile</t>
   </si>
 </sst>
 </file>
@@ -574,7 +586,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -677,11 +689,14 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
       <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -691,8 +706,11 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1093,15 +1111,42 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5E4017-C272-41B0-A60F-7D5DD167C69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9724091A-D8B6-4A54-A19D-5E89F6BA3ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2903373-49F9-4439-B084-47E374EA3004}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>Cannot load drivers using command line</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>Cannot boot / install on very low memory systems even with swapfile</t>
+  </si>
+  <si>
+    <t>Directories always exist, e.g. you can CD to an invalid directory, cannot use MKDIR because already exists</t>
+  </si>
+  <si>
+    <t>VCACHE is horribly terrible at caching anything</t>
   </si>
 </sst>
 </file>
@@ -586,7 +592,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,10 +1159,28 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
